--- a/tests/fixtures/multi.xlsx
+++ b/tests/fixtures/multi.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="6420" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="35">
   <si>
     <t>FAMILY</t>
   </si>
@@ -59,9 +59,6 @@
     <t>rs1044973</t>
   </si>
   <si>
-    <t>ID-000026T</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -80,12 +77,6 @@
     <t>C T</t>
   </si>
   <si>
-    <t>ID-000027T</t>
-  </si>
-  <si>
-    <t>ID-000028T</t>
-  </si>
-  <si>
     <t>A G</t>
   </si>
   <si>
@@ -107,16 +98,34 @@
     <t>rs1065772</t>
   </si>
   <si>
-    <t>ID-000061T</t>
-  </si>
-  <si>
-    <t>ID-000062T</t>
-  </si>
-  <si>
     <t>ID-0002P008</t>
   </si>
   <si>
     <t>ID-0002P012</t>
+  </si>
+  <si>
+    <t>ID-CG-000026T</t>
+  </si>
+  <si>
+    <t>ID-CG-000027T</t>
+  </si>
+  <si>
+    <t>ID-CG-000028T</t>
+  </si>
+  <si>
+    <t>ID-CG-000061T</t>
+  </si>
+  <si>
+    <t>ID-CG-000062T</t>
+  </si>
+  <si>
+    <t>ID-CG-0002P004</t>
+  </si>
+  <si>
+    <t>ID-CG-0002P005</t>
+  </si>
+  <si>
+    <t>ID-CG-0002P006</t>
   </si>
 </sst>
 </file>
@@ -129,7 +138,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -593,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -608,22 +616,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -631,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -646,22 +654,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -669,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -684,22 +692,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -757,13 +765,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -772,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -786,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -801,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -815,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -830,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -844,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -859,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -883,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -927,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -935,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -950,25 +958,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -976,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -991,25 +999,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1017,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1032,25 +1040,25 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1058,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1073,25 +1081,25 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1099,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1114,25 +1122,25 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1140,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1155,25 +1163,25 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1181,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1196,25 +1204,25 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1222,13 +1230,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1237,25 +1245,25 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
